--- a/Matlab_Excel/Excel/Inter-cell.xlsx
+++ b/Matlab_Excel/Excel/Inter-cell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22820"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3d1b\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1181" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F89F89B-A0F8-4D43-9360-559BB09B1E80}"/>
+  <xr:revisionPtr revIDLastSave="2144" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7400E42-606B-49C8-9C81-E5EF10AA5C1C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Total site</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Spanning time</t>
+  </si>
+  <si>
+    <t>2000-3900</t>
   </si>
   <si>
     <t>Flight time</t>
@@ -56,7 +59,7 @@
     <t>Data</t>
   </si>
   <si>
-    <t>R0 300</t>
+    <t>R0 500</t>
   </si>
   <si>
     <t>Total site = 500</t>
@@ -418,333 +421,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="10" max="11" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" customWidth="1"/>
+    <col min="16" max="17" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="27" width="11.7109375" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="C1">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="D1">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E1">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="F1">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="G1">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="H1">
-        <v>90</v>
-      </c>
-      <c r="J1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1">
+        <v>550</v>
+      </c>
+      <c r="J1">
+        <v>600</v>
+      </c>
+      <c r="K1">
+        <v>650</v>
+      </c>
+      <c r="L1">
+        <v>700</v>
+      </c>
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="K1">
+      <c r="Q1">
         <v>100</v>
       </c>
-      <c r="L1">
+      <c r="R1">
         <v>150</v>
       </c>
-      <c r="M1">
+      <c r="S1">
         <v>200</v>
       </c>
-      <c r="N1">
+      <c r="T1">
         <v>250</v>
       </c>
-      <c r="O1">
+      <c r="U1">
         <v>300</v>
       </c>
-      <c r="P1">
+      <c r="V1">
         <v>350</v>
       </c>
-      <c r="Q1">
+      <c r="W1">
         <v>400</v>
       </c>
-      <c r="R1">
+      <c r="X1">
         <v>450</v>
       </c>
-      <c r="S1">
+      <c r="Y1">
         <v>500</v>
       </c>
-      <c r="T1">
+      <c r="Z1">
         <v>550</v>
       </c>
-      <c r="U1">
+      <c r="AA1">
         <v>600</v>
       </c>
-      <c r="V1">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D2">
+        <v>23.1127</v>
+      </c>
+      <c r="E2">
+        <v>24.425799999999999</v>
+      </c>
+      <c r="F2">
+        <v>25.821899999999999</v>
+      </c>
+      <c r="G2">
+        <v>28.215</v>
+      </c>
+      <c r="H2">
+        <v>32.3217</v>
+      </c>
+      <c r="I2">
+        <v>35.936100000000003</v>
+      </c>
+      <c r="J2">
+        <v>39.356099999999998</v>
+      </c>
+      <c r="K2">
+        <v>45.588200000000001</v>
+      </c>
+      <c r="L2">
+        <v>51.054099999999998</v>
+      </c>
+      <c r="P2" t="s">
         <v>2</v>
       </c>
-      <c r="L2">
-        <v>60.337899999999998</v>
-      </c>
-      <c r="M2">
-        <v>46.951000000000001</v>
-      </c>
-      <c r="N2">
-        <v>38.1556</v>
-      </c>
-      <c r="O2">
-        <v>33.750500000000002</v>
-      </c>
-      <c r="P2">
-        <v>30.0106</v>
-      </c>
-      <c r="Q2">
-        <v>26.438600000000001</v>
-      </c>
-      <c r="R2">
-        <v>25.378699999999998</v>
-      </c>
-      <c r="S2">
-        <v>23.4437</v>
+      <c r="S2" t="s">
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>23.138500000000001</v>
+        <v>50.114899999999999</v>
       </c>
       <c r="U2">
-        <v>21.4085</v>
+        <v>44.840699999999998</v>
       </c>
       <c r="V2">
-        <v>20.4602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>39.696399999999997</v>
+      </c>
+      <c r="W2">
+        <v>35.549599999999998</v>
+      </c>
+      <c r="X2">
+        <v>33.066299999999998</v>
+      </c>
+      <c r="Y2">
+        <v>32.3217</v>
+      </c>
+      <c r="Z2">
+        <v>30.4742</v>
+      </c>
+      <c r="AA2">
+        <v>29.491199999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7.8982000000000001</v>
+      </c>
+      <c r="E3">
+        <v>8.8706499999999995</v>
+      </c>
+      <c r="F3">
+        <v>9.8570499999999992</v>
+      </c>
+      <c r="G3">
+        <v>10.9411</v>
+      </c>
+      <c r="H3">
+        <v>12.190899999999999</v>
+      </c>
+      <c r="I3">
+        <v>13.476599999999999</v>
+      </c>
+      <c r="J3">
+        <v>14.548400000000001</v>
+      </c>
+      <c r="K3">
+        <v>15.764699999999999</v>
       </c>
       <c r="L3">
-        <v>19.293199999999999</v>
-      </c>
-      <c r="M3">
-        <v>15.749700000000001</v>
-      </c>
-      <c r="N3">
-        <v>13.603400000000001</v>
-      </c>
-      <c r="O3">
-        <v>12.467000000000001</v>
-      </c>
-      <c r="P3">
-        <v>11.6035</v>
-      </c>
-      <c r="Q3">
-        <v>10.988</v>
-      </c>
-      <c r="R3">
-        <v>10.518000000000001</v>
-      </c>
-      <c r="S3">
-        <v>10.1593</v>
+        <v>16.886700000000001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>9.8912700000000005</v>
+        <v>16.076699999999999</v>
       </c>
       <c r="U3">
-        <v>9.6244499999999995</v>
+        <v>14.9627</v>
       </c>
       <c r="V3">
-        <v>9.4391200000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>14.043100000000001</v>
+      </c>
+      <c r="W3">
+        <v>13.3744</v>
+      </c>
+      <c r="X3">
+        <v>12.8874</v>
+      </c>
+      <c r="Y3">
+        <v>12.190899999999999</v>
+      </c>
+      <c r="Z3">
+        <v>11.6799</v>
+      </c>
+      <c r="AA3">
+        <v>11.316599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>10.4717</v>
+      </c>
+      <c r="E4">
+        <v>11.7788</v>
+      </c>
+      <c r="F4">
+        <v>13.1</v>
+      </c>
+      <c r="G4">
+        <v>14.536899999999999</v>
+      </c>
+      <c r="H4">
+        <v>16.200700000000001</v>
+      </c>
+      <c r="I4">
+        <v>17.918800000000001</v>
+      </c>
+      <c r="J4">
+        <v>19.355</v>
+      </c>
+      <c r="K4">
+        <v>20.983599999999999</v>
       </c>
       <c r="L4">
-        <v>24.845800000000001</v>
-      </c>
-      <c r="M4">
-        <v>20.380800000000001</v>
-      </c>
-      <c r="N4">
-        <v>17.677299999999999</v>
-      </c>
-      <c r="O4">
-        <v>16.25</v>
-      </c>
-      <c r="P4">
-        <v>15.1593</v>
-      </c>
-      <c r="Q4">
-        <v>14.3855</v>
-      </c>
-      <c r="R4">
-        <v>13.793200000000001</v>
-      </c>
-      <c r="S4">
-        <v>13.339600000000001</v>
+        <v>22.4878</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>13.0067</v>
+        <v>21.125499999999999</v>
       </c>
       <c r="U4">
-        <v>12.6717</v>
+        <v>19.716699999999999</v>
       </c>
       <c r="V4">
-        <v>12.438800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>18.553899999999999</v>
+      </c>
+      <c r="W4">
+        <v>17.7089</v>
+      </c>
+      <c r="X4">
+        <v>17.093599999999999</v>
+      </c>
+      <c r="Y4">
+        <v>16.200700000000001</v>
+      </c>
+      <c r="Z4">
+        <v>15.5404</v>
+      </c>
+      <c r="AA4">
+        <v>15.103300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>90.1999</v>
+      </c>
+      <c r="E5">
+        <v>99.502499999999998</v>
+      </c>
+      <c r="F5">
+        <v>109.068</v>
+      </c>
+      <c r="G5">
+        <v>119.676</v>
+      </c>
+      <c r="H5">
+        <v>133.91</v>
+      </c>
+      <c r="I5">
+        <v>148.785</v>
+      </c>
+      <c r="J5">
+        <v>159.56200000000001</v>
+      </c>
+      <c r="K5">
+        <v>171.86099999999999</v>
       </c>
       <c r="L5">
-        <v>291.38400000000001</v>
-      </c>
-      <c r="M5">
-        <v>227.602</v>
-      </c>
-      <c r="N5">
-        <v>188.96799999999999</v>
-      </c>
-      <c r="O5">
-        <v>168.51400000000001</v>
-      </c>
-      <c r="P5">
-        <v>152.97</v>
-      </c>
-      <c r="Q5">
-        <v>141.89099999999999</v>
-      </c>
-      <c r="R5">
-        <v>133.43199999999999</v>
-      </c>
-      <c r="S5">
-        <v>126.97499999999999</v>
+        <v>182.97900000000001</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
       </c>
       <c r="T5">
-        <v>122.15</v>
+        <v>202.58199999999999</v>
       </c>
       <c r="U5">
-        <v>117.348</v>
+        <v>183.05500000000001</v>
       </c>
       <c r="V5">
-        <v>114.012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>166.881</v>
+      </c>
+      <c r="W5">
+        <v>155.07300000000001</v>
+      </c>
+      <c r="X5">
+        <v>146.47</v>
+      </c>
+      <c r="Y5">
+        <v>133.91</v>
+      </c>
+      <c r="Z5">
+        <v>124.739</v>
+      </c>
+      <c r="AA5">
+        <v>118.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>3.0057</v>
+      </c>
+      <c r="E6">
+        <v>3.4491999999999998</v>
+      </c>
+      <c r="F6">
+        <v>3.88436</v>
+      </c>
+      <c r="G6">
+        <v>4.3120099999999999</v>
+      </c>
+      <c r="H6">
+        <v>4.6248899999999997</v>
+      </c>
+      <c r="I6">
+        <v>4.9170100000000003</v>
+      </c>
+      <c r="J6">
+        <v>5.23414</v>
+      </c>
+      <c r="K6">
+        <v>5.5915699999999999</v>
       </c>
       <c r="L6">
-        <v>4.8823699999999999</v>
-      </c>
-      <c r="M6">
-        <v>5.5266799999999998</v>
-      </c>
-      <c r="N6">
-        <v>5.9871100000000004</v>
-      </c>
-      <c r="O6">
-        <v>6.2168400000000004</v>
-      </c>
-      <c r="P6">
-        <v>6.3904100000000001</v>
-      </c>
-      <c r="Q6">
-        <v>6.5389799999999996</v>
-      </c>
-      <c r="R6">
-        <v>6.62296</v>
-      </c>
-      <c r="S6">
-        <v>6.70289</v>
+        <v>5.8919100000000002</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
       </c>
       <c r="T6">
-        <v>6.7723899999999997</v>
+        <v>3.3644699999999998</v>
       </c>
       <c r="U6">
-        <v>6.8400999999999996</v>
+        <v>3.74234</v>
       </c>
       <c r="V6">
-        <v>6.8539399999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>4.0501500000000004</v>
+      </c>
+      <c r="W6">
+        <v>4.2698200000000002</v>
+      </c>
+      <c r="X6">
+        <v>4.4378299999999999</v>
+      </c>
+      <c r="Y6">
+        <v>4.6248899999999997</v>
+      </c>
+      <c r="Z6">
+        <v>4.7720099999999999</v>
+      </c>
+      <c r="AA6">
+        <v>4.8830200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>11.1913</v>
+      </c>
+      <c r="E7">
+        <v>12.744400000000001</v>
+      </c>
+      <c r="F7">
+        <v>14.3499</v>
+      </c>
+      <c r="G7">
+        <v>16.076000000000001</v>
+      </c>
+      <c r="H7">
+        <v>17.9787</v>
+      </c>
+      <c r="I7">
+        <v>19.928799999999999</v>
+      </c>
+      <c r="J7">
+        <v>21.775500000000001</v>
+      </c>
+      <c r="K7">
+        <v>24.1982</v>
       </c>
       <c r="L7">
-        <v>21.091899999999999</v>
-      </c>
-      <c r="M7">
-        <v>19.015000000000001</v>
-      </c>
-      <c r="N7">
-        <v>17.761099999999999</v>
-      </c>
-      <c r="O7">
-        <v>17.095700000000001</v>
-      </c>
-      <c r="P7">
-        <v>16.5762</v>
-      </c>
-      <c r="Q7">
-        <v>16.2255</v>
-      </c>
-      <c r="R7">
-        <v>15.957800000000001</v>
-      </c>
-      <c r="S7">
-        <v>15.735799999999999</v>
+        <v>26.8932</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
       </c>
       <c r="T7">
-        <v>15.5936</v>
+        <v>23.361499999999999</v>
       </c>
       <c r="U7">
-        <v>15.42</v>
+        <v>21.904699999999998</v>
       </c>
       <c r="V7">
-        <v>15.3255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>20.2957</v>
+      </c>
+      <c r="W7">
+        <v>19.192499999999999</v>
+      </c>
+      <c r="X7">
+        <v>18.536999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>17.9787</v>
+      </c>
+      <c r="Z7">
+        <v>17.5029</v>
+      </c>
+      <c r="AA7">
+        <v>17.1736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -753,81 +889,123 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="2"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="2"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="P9:W9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
